--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thpo-Mpl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Thpo-Mpl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Thpo</t>
+  </si>
+  <si>
+    <t>Mpl</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Thpo</t>
-  </si>
-  <si>
-    <t>Mpl</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.09370333333333332</v>
+        <v>2.535553</v>
       </c>
       <c r="H2">
-        <v>0.28111</v>
+        <v>7.606659</v>
       </c>
       <c r="I2">
-        <v>0.0306254271991619</v>
+        <v>0.8548859591470492</v>
       </c>
       <c r="J2">
-        <v>0.03062542719916191</v>
+        <v>0.8548859591470491</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,10 +552,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2027356666666667</v>
+        <v>0.06720333333333334</v>
       </c>
       <c r="N2">
-        <v>0.6082070000000001</v>
+        <v>0.20161</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01899700775222222</v>
+        <v>0.1703976134433333</v>
       </c>
       <c r="R2">
-        <v>0.17097306977</v>
+        <v>1.53357852099</v>
       </c>
       <c r="S2">
-        <v>0.0306254271991619</v>
+        <v>0.8548859591470492</v>
       </c>
       <c r="T2">
-        <v>0.03062542719916191</v>
+        <v>0.8548859591470491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.535553</v>
+        <v>0.4304016666666666</v>
       </c>
       <c r="H3">
-        <v>7.606659000000001</v>
+        <v>1.291205</v>
       </c>
       <c r="I3">
-        <v>0.8287047114416055</v>
+        <v>0.1451140408529508</v>
       </c>
       <c r="J3">
-        <v>0.8287047114416056</v>
+        <v>0.1451140408529508</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,10 +614,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2027356666666667</v>
+        <v>0.06720333333333334</v>
       </c>
       <c r="N3">
-        <v>0.6082070000000001</v>
+        <v>0.20161</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,78 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.5140470278236667</v>
+        <v>0.02892442667222222</v>
       </c>
       <c r="R3">
-        <v>4.626423250413001</v>
+        <v>0.26031984005</v>
       </c>
       <c r="S3">
-        <v>0.8287047114416055</v>
+        <v>0.1451140408529508</v>
       </c>
       <c r="T3">
-        <v>0.8287047114416056</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.4304016666666666</v>
-      </c>
-      <c r="H4">
-        <v>1.291205</v>
-      </c>
-      <c r="I4">
-        <v>0.1406698613592325</v>
-      </c>
-      <c r="J4">
-        <v>0.1406698613592325</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.2027356666666667</v>
-      </c>
-      <c r="N4">
-        <v>0.6082070000000001</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.08725776882611111</v>
-      </c>
-      <c r="R4">
-        <v>0.785319919435</v>
-      </c>
-      <c r="S4">
-        <v>0.1406698613592325</v>
-      </c>
-      <c r="T4">
-        <v>0.1406698613592325</v>
+        <v>0.1451140408529508</v>
       </c>
     </row>
   </sheetData>
